--- a/resources/import/policies_cond_export.xlsx
+++ b/resources/import/policies_cond_export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Policy</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>Condition ID (Don't Change, Leave empty if new)</t>
   </si>
 </sst>
 </file>
@@ -341,6 +344,7 @@
     <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="4" max="4" width="24.25"/>
     <col customWidth="1" min="5" max="5" width="29.88"/>
+    <col customWidth="1" min="8" max="8" width="58.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -363,6 +367,9 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
